--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request400.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>2.62</v>
       </c>
       <c r="C164" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="165">
@@ -2246,7 +2246,7 @@
         <v>2.2</v>
       </c>
       <c r="C165" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="166">
@@ -2257,7 +2257,7 @@
         <v>15.748</v>
       </c>
       <c r="C166" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="167">
@@ -2675,7 +2675,7 @@
         <v>9.763999999999999</v>
       </c>
       <c r="C204" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="205">
@@ -2686,7 +2686,7 @@
         <v>2.08</v>
       </c>
       <c r="C205" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="206">
@@ -3357,7 +3357,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C266" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="267">
@@ -4226,7 +4226,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C345" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="346">
@@ -5095,7 +5095,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C424" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="425">
@@ -5964,7 +5964,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C503" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="504">
@@ -6833,7 +6833,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C582" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="583">
@@ -7702,7 +7702,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C661" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="662">
@@ -8571,7 +8571,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C740" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="741">
@@ -9440,7 +9440,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C819" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="820">
@@ -10309,7 +10309,7 @@
         <v>77.91440000000001</v>
       </c>
       <c r="C898" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="899">
@@ -10537,7 +10537,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>417.9224</v>
+        <v>401.9224</v>
       </c>
       <c r="C919" t="n">
         <v>11875001</v>
